--- a/data/pop78.xlsx
+++ b/data/pop78.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajeev.yadav\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajeev.yadav\Desktop\projects\see-result-80\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9812B2-E23A-4DAD-9C57-BC540C5E6FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26084C6B-0934-4425-8F2A-EAB1342E9CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E21F623-39F3-48FA-9C17-5352611C3BA9}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>karnali</t>
   </si>
   <si>
-    <t>sudupaschim</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 95 +</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>10-14</t>
+  </si>
+  <si>
+    <t>sudurpaschim</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,64 +535,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1413,7 +1413,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
